--- a/NB/InputData/Coeff_326__001.xlsx
+++ b/NB/InputData/Coeff_326__001.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" xr2:uid="{593192D1-3BAC-496A-9D1C-32CDC07332A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1" xr2:uid="{593192D1-3BAC-496A-9D1C-32CDC07332A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="117">
   <si>
     <t>coeff෴Y➔A</t>
   </si>
@@ -135,6 +136,246 @@
   </si>
   <si>
     <t>coeff෴B˖b➔Y˖b</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖C➔A˖C</t>
+  </si>
+  <si>
+    <t>coeff෴A˖C➔Y˖C</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖D➔A˖D</t>
+  </si>
+  <si>
+    <t>coeff෴A˖D➔Y˖D</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖c➔A˖c</t>
+  </si>
+  <si>
+    <t>coeff෴A˖c➔Y˖c</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖d➔A˖d</t>
+  </si>
+  <si>
+    <t>coeff෴A˖d➔Y˖d</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖C➔B˖C</t>
+  </si>
+  <si>
+    <t>coeff෴B˖C➔Y˖C</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖D➔B˖D</t>
+  </si>
+  <si>
+    <t>coeff෴B˖D➔Y˖D</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖c➔B˖c</t>
+  </si>
+  <si>
+    <t>coeff෴B˖c➔Y˖c</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖d➔B˖d</t>
+  </si>
+  <si>
+    <t>coeff෴B˖d➔Y˖d</t>
+  </si>
+  <si>
+    <t>coeff෴Y➔C</t>
+  </si>
+  <si>
+    <t>coeff෴C➔Y</t>
+  </si>
+  <si>
+    <t>coeff෴Y➔c</t>
+  </si>
+  <si>
+    <t>coeff෴c➔Y</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖A➔C˖A</t>
+  </si>
+  <si>
+    <t>coeff෴C˖A➔Y˖A</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖B➔C˖B</t>
+  </si>
+  <si>
+    <t>coeff෴C˖B➔Y˖B</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖C➔C˖C</t>
+  </si>
+  <si>
+    <t>coeff෴C˖C➔Y˖C</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖D➔C˖D</t>
+  </si>
+  <si>
+    <t>coeff෴C˖D➔Y˖D</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖a➔C˖a</t>
+  </si>
+  <si>
+    <t>coeff෴C˖a➔Y˖a</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖b➔C˖b</t>
+  </si>
+  <si>
+    <t>coeff෴C˖b➔Y˖b</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖c➔C˖c</t>
+  </si>
+  <si>
+    <t>coeff෴C˖c➔Y˖c</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖d➔C˖d</t>
+  </si>
+  <si>
+    <t>coeff෴C˖d➔Y˖d</t>
+  </si>
+  <si>
+    <t>coeff෴Y➔D</t>
+  </si>
+  <si>
+    <t>coeff෴D➔Y</t>
+  </si>
+  <si>
+    <t>coeff෴Y➔d</t>
+  </si>
+  <si>
+    <t>coeff෴d➔Y</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖A➔D˖A</t>
+  </si>
+  <si>
+    <t>coeff෴D˖A➔Y˖A</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖B➔D˖B</t>
+  </si>
+  <si>
+    <t>coeff෴D˖B➔Y˖B</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖C➔D˖C</t>
+  </si>
+  <si>
+    <t>coeff෴D˖C➔Y˖C</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖D➔D˖D</t>
+  </si>
+  <si>
+    <t>coeff෴D˖D➔Y˖D</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖a➔D˖a</t>
+  </si>
+  <si>
+    <t>coeff෴D˖a➔Y˖a</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖b➔D˖b</t>
+  </si>
+  <si>
+    <t>coeff෴D˖b➔Y˖b</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖c➔D˖c</t>
+  </si>
+  <si>
+    <t>coeff෴D˖c➔Y˖c</t>
+  </si>
+  <si>
+    <t>coeff෴Y˖d➔D˖d</t>
+  </si>
+  <si>
+    <t>coeff෴D˖d➔Y˖d</t>
+  </si>
+  <si>
+    <t>coeff෴A˖C➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴A˖c➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴A˖D➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴A˖d➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴B˖C➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴B˖c➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴B˖D➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴B˖d➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖A➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖a➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖B➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖b➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖C➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖c➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖D➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴C˖d➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖A➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖a➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖B➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖b➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖C➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖c➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖D➔2Y</t>
+  </si>
+  <si>
+    <t>coeff෴D˖d➔2Y</t>
   </si>
 </sst>
 </file>
@@ -525,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2A185C-1A25-424B-A663-471D861DD72E}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1142,4 +1383,1865 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81BA79D-F10F-4CB6-AC35-B0184D96C13D}">
+  <dimension ref="A1:E113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(D2&lt;&gt;"", C2 &amp; "=" &amp; D2 &amp; ";", "")</f>
+        <v>coeff෴Y➔A=0;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(D3&lt;&gt;"", C3 &amp; "=" &amp; D3 &amp; ";", "")</f>
+        <v>coeff෴A➔Y=0;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔a=0;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴a➔Y=0;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖A➔Y˖A=0;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖B➔Y˖B=0;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖C➔Y˖C=0;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖D➔Y˖D=0;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖a➔Y˖a=0;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖b➔Y˖b=0;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖c➔Y˖c=0;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴A˖d➔Y˖d=0;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔B=0;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B➔Y=0;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔b=0;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴b➔Y=0;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖A➔Y˖A=0;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖B➔Y˖B=0;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖C➔Y˖C=0;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖D➔Y˖D=0;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖a➔Y˖a=0;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖b➔Y˖b=0;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖c➔Y˖c=0;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴B˖d➔Y˖d=0;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔C=0;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C➔Y=0;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔c=0;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴c➔Y=0;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖A➔Y˖A=0;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖B➔Y˖B=0;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖C➔Y˖C=0;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖D➔Y˖D=0;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖a➔Y˖a=0;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖b➔Y˖b=0;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖c➔Y˖c=0;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴C˖d➔Y˖d=0;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔D=0;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴D➔Y=0;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴Y➔d=0;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>coeff෴d➔Y=0;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E113" si="1">IF(D67&lt;&gt;"", C67 &amp; "=" &amp; D67 &amp; ";", "")</f>
+        <v>coeff෴D˖A➔Y˖A=0;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖B➔Y˖B=0;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖C➔Y˖C=0;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖D➔Y˖D=0;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖a➔Y˖a=0;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖b➔Y˖b=0;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖c➔Y˖c=0;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>coeff෴D˖d➔Y˖d=0;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>